--- a/documents/Published/CalendarVisual/CalendarVisualByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/CalendarVisual/CalendarVisualByMAQSoftwareChecklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirza\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE2D42D-40D9-460D-9F11-66BE6E65E4D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BCAD93-FA9E-4484-9004-48AF07F3C04F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BBDE03C9-0260-4264-B62F-D02A960AE001}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="152">
   <si>
     <t>Feature</t>
   </si>
@@ -453,11 +453,6 @@
 3. Toggle 'Week number' Button</t>
   </si>
   <si>
-    <t>1. Click on Format Pane
-2. Click on Calendar Settings
-3. Toggle 'Navigation Link' Button</t>
-  </si>
-  <si>
     <t>Check current time line</t>
   </si>
   <si>
@@ -497,9 +492,6 @@
     <t>Check Legends rendered based on 'Event Group'</t>
   </si>
   <si>
-    <t>1. Drag 'Event Category' data into Event Category Databag</t>
-  </si>
-  <si>
     <t>The Legends should be rendered based on event group.
 The respective events and legends must have appropriate colors</t>
   </si>
@@ -534,9 +526,6 @@
   </si>
   <si>
     <t>1. Add 'Date' in 'Start Date' Data bag</t>
-  </si>
-  <si>
-    <t>1. Add 'Event' in event Data bag</t>
   </si>
   <si>
     <t>Display visual with data entered in tool tip data bag</t>
@@ -595,7 +584,30 @@
     <t>Validation Screenshots</t>
   </si>
   <si>
-    <t>These are tested and do not work. There is no working functionality of this on the market build as well.</t>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>Internet Explorer</t>
+  </si>
+  <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>1. Drag 'Event Groups' data into Event Groups Databag</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>1. Click on Format Pane
+2. Click on Calendar Settings
+3. Toggle 'Navigation Link' Button                                                                                                                                                                                                                                                                                                                                                                                                                                                                                             Toggle 'Week number' Button</t>
   </si>
 </sst>
 </file>
@@ -679,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -712,6 +724,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -724,16 +751,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,39 +775,2415 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4657725</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1609725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D6A5EE-9004-436B-B110-55C947C8A9C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14363700" y="40652700"/>
+          <a:ext cx="4524375" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4543425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2099406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D85B9E-FEE2-4AAD-8A99-493A7C906E19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13115925" y="714375"/>
+          <a:ext cx="4219575" cy="1766031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4076700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1904300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89E385DC-4895-454F-B567-4BF422824311}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18373725" y="714375"/>
+          <a:ext cx="3686175" cy="1570925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4048125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1866200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6432C281-7C71-47FC-B037-B507B0DA8C0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23441025" y="676275"/>
+          <a:ext cx="3686175" cy="1570925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3762375</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1885250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{703114E7-0D63-4A92-B3ED-ABEA43320671}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27412950" y="695325"/>
+          <a:ext cx="3686175" cy="1570925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>752476</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF3BB6F-8FC9-44CE-BD9D-0FCE469AD899}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12792075" y="381000"/>
-          <a:ext cx="5191125" cy="2676525"/>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4105276</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1704363</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B2F860-5521-4ED9-9A57-C44C075B94BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13544551" y="3362325"/>
+          <a:ext cx="3352800" cy="1399563"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4410075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1761513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CC0B455-E8A7-4BE7-ABA0-69D3EB69980F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19040475" y="3419475"/>
+          <a:ext cx="3352800" cy="1399563"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3857625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1675788</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214ED9B8-2715-4171-B719-AC3D0EF9DF1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23583900" y="3333750"/>
+          <a:ext cx="3352800" cy="1399563"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3924300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1675788</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95FE211C-5989-4237-899D-EA5ABD18730D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27908250" y="3333750"/>
+          <a:ext cx="3352800" cy="1399563"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>400051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5122051</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2171701</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF415939-1ED2-42D7-9B22-1BCE1C338986}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14525625" y="5953126"/>
+          <a:ext cx="4826776" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>576242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4352925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2086695</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E6B4D0-27AC-4DE4-80B7-F7566DCDE20B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19726275" y="6129317"/>
+          <a:ext cx="4048125" cy="1510453"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>685800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4267200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2196253</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89814CF2-426C-4B77-8449-C342049CEBAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24736425" y="6238875"/>
+          <a:ext cx="4048125" cy="1510453"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4419600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2120053</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98FB03C2-FD1D-42FB-8D6A-FC25A663F7EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29622750" y="6162675"/>
+          <a:ext cx="4048125" cy="1510453"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4476749</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2047875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACB6F918-9DC7-46AB-9AAF-E50534793C30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14554200" y="9439275"/>
+          <a:ext cx="4152899" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4648199</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2228850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41E5B89C-8FE8-469D-BEDB-B719653161AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19916775" y="9620250"/>
+          <a:ext cx="4152899" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4600574</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2114550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E601193-D2AF-4E5A-BE83-159C436D689C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24965025" y="9505950"/>
+          <a:ext cx="4152899" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4400549</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2143125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED75F27E-38A1-4678-AE4B-E065E8260183}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29498925" y="9534525"/>
+          <a:ext cx="4152899" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5001515</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2486025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C32588D-D5C4-4FC5-B0C5-1179D4D6D86C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14382750" y="12649200"/>
+          <a:ext cx="4849115" cy="2028825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4982465</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2438400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{287BF746-610D-499C-9ADE-1CEE5C01F85E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19554825" y="12601575"/>
+          <a:ext cx="4849115" cy="2028825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4982465</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2466975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AABCDDA-26B2-4D03-BCD1-7853A5DA44FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24650700" y="12630150"/>
+          <a:ext cx="4849115" cy="2028825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4906265</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2476500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45302FF8-D608-40DB-AC48-F1C2074519F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29746575" y="12639675"/>
+          <a:ext cx="4849115" cy="2028825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>457201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5116760</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2552701</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7988539-1522-4569-961C-405D9EACCCAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14325600" y="16278226"/>
+          <a:ext cx="5021510" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5097710</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2495550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B303921-0A42-4F7E-B12E-FF4E9A3A0B7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19497675" y="16221075"/>
+          <a:ext cx="5021510" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5097710</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2390775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F1CF16-D065-4D30-9F23-FAA50B2CF9CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25031700" y="16116300"/>
+          <a:ext cx="5021510" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5231060</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2400300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{351C0213-7FC6-4D0D-85FC-6174B76B1355}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30337125" y="16125825"/>
+          <a:ext cx="5021510" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>561975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5007751</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2333625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{354D19D5-34A0-497B-8446-C1645BC8E237}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14411325" y="19831050"/>
+          <a:ext cx="4826776" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5141101</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2095500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF7C4A63-4F10-4729-8C86-0D37898E9A5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19735800" y="19592925"/>
+          <a:ext cx="4826776" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4979176</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2124075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18C26AA-2C6A-4D65-B5A8-3D17EFED0B7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25107900" y="19621500"/>
+          <a:ext cx="4826776" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5322076</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2190750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B40ABA65-2CB8-4C95-BEE5-07C4B59E1541}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30622875" y="19688175"/>
+          <a:ext cx="4826776" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>187509</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>361951</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4901427</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2352675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FC44F6E-DF8A-4B85-9A69-FFA4C8D546A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19608984" y="23450551"/>
+          <a:ext cx="4713918" cy="1990724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>428626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4972050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2235918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19410439-4DCA-473C-ABD1-B47E80DC85FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14868525" y="23517226"/>
+          <a:ext cx="4333875" cy="1807292"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4990143</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2438399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{222F7BCB-7933-4BD7-94A9-D1E22D1E7C43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25231725" y="23536275"/>
+          <a:ext cx="4713918" cy="1990724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4894893</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2505074</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04E6C14F-8E15-4E7B-8DDC-FFFA315D5377}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30308550" y="23602950"/>
+          <a:ext cx="4713918" cy="1990724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>504826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5054063</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2505076</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{039DE574-9FAF-4A1C-8178-673BA9A930D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19688175" y="27041476"/>
+          <a:ext cx="4787363" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>628650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5082638</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2628900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{632FEC0C-4234-4047-AFB4-178233EBBA43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25250775" y="27165300"/>
+          <a:ext cx="4787363" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5215988</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2390775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{969AAA98-A7FB-48A7-8250-98E3C6A148FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30556200" y="26927175"/>
+          <a:ext cx="4787363" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>542925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5091963</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2553423</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9017C7A-2938-4873-8B2F-9F367F38561A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14573251" y="27079575"/>
+          <a:ext cx="4749062" cy="2010498"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>533401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5229225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2537249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F818021B-4D94-43FF-A282-8EF888C27C5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19926300" y="31022926"/>
+          <a:ext cx="4724400" cy="2003848"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5057775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2537248</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA6B6F96-A270-43D1-9281-5EA5DA8CCDD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25288875" y="31022925"/>
+          <a:ext cx="4724400" cy="2003848"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4943475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2508673</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E1982E6-370A-4AD1-8AC5-1AAD1500D11C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30346650" y="30994350"/>
+          <a:ext cx="4724400" cy="2003848"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>419101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4832781</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2352675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30BE5153-DD6E-49A4-BA2C-830DB98B9B74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14478001" y="30908626"/>
+          <a:ext cx="4585130" cy="1933574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190367</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5114372</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1695450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5BED537-337F-4148-B673-F9E5866FC0C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14420717" y="34109025"/>
+          <a:ext cx="4924005" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4905376</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1908490</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8BCD885-9D5E-4C2E-A2AC-E47EEDC24BE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19831051" y="33966150"/>
+          <a:ext cx="4495800" cy="1870390"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4857750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1956115</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05ACCEFA-4607-4C04-B548-7DCD00E85722}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25317450" y="34013775"/>
+          <a:ext cx="4495800" cy="1870390"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5200650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1937065</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CC92E81-5CFB-45C3-B646-CF8E3E2D22BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30832425" y="33994725"/>
+          <a:ext cx="4495800" cy="1870390"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3527276</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1541174</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2C76BAA-32A6-4453-8F0B-2CDA3507A75E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14420849" y="36042600"/>
+          <a:ext cx="3336777" cy="1407824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>699567</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4421836</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1628775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9972AD4-E464-406B-93A0-32890104D877}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20121042" y="35966400"/>
+          <a:ext cx="3722269" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4427119</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Picture 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A426D19-5AD3-4704-8C3C-A4A05008490B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25660350" y="36014025"/>
+          <a:ext cx="3722269" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4312819</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1581150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{821600D4-2928-4F34-AF44-C8DCCE4D024E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30718125" y="35918775"/>
+          <a:ext cx="3722269" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>128535</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5185522</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>657225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A325D530-E1D4-48BE-958F-66CBEB86CA0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14358885" y="37995225"/>
+          <a:ext cx="5056987" cy="2133600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5236242</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>628650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Picture 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{710C53EA-AA57-4E32-92FE-7229B2370F81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19897725" y="38090475"/>
+          <a:ext cx="4759992" cy="2009775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4979067</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>590550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16B50294-65E1-4058-84F4-AF63BDB29669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25174575" y="38052375"/>
+          <a:ext cx="4759992" cy="2009775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>369470</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5264817</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>619125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Picture 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28950667-D090-449E-BFFA-88CCCF41E512}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30497045" y="38023800"/>
+          <a:ext cx="4895347" cy="2066925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>112752</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4794623</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2057400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Picture 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94D360BE-6A4B-4EC0-8788-01E225E18179}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14363700" y="43899177"/>
+          <a:ext cx="4661273" cy="1944648"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254464</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>609601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4213352</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2266951</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Picture 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E96FE9A6-5478-4F3E-BB19-24189BD59F1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14484814" y="46701076"/>
+          <a:ext cx="3958888" cy="1657350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -802,38 +3196,258 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5095875</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2635801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Picture 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5FEAEF5-146C-4E7D-A217-7B9458B9D859}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14230350" y="49634775"/>
+          <a:ext cx="5095875" cy="2140501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4036702</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2266950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Picture 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B0C4235-8A77-4257-A6AA-A59666D935F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14316075" y="53940075"/>
+          <a:ext cx="3950977" cy="1657350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>428626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4375463</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1838326</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Picture 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{225AA61C-0ED7-4A95-AD3E-3293CCEC1581}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14516100" y="59521726"/>
+          <a:ext cx="4089713" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABBBCF8D-529B-48AD-84D8-B228D5094474}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12792075" y="3057526"/>
-          <a:ext cx="5191125" cy="2495550"/>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4727888</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1762125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Picture 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC431A26-116D-4EF9-9E0C-D25B6154CDF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20059650" y="59445525"/>
+          <a:ext cx="4089713" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4556438</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1828800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Picture 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F84F65C7-10B9-451D-B740-B888BAC0CFA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25422225" y="59512200"/>
+          <a:ext cx="4089713" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4499288</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1628775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Picture 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B403B2-B1AE-4B23-ADA6-E11D510783A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30537150" y="59312175"/>
+          <a:ext cx="4089713" cy="1409700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -845,39 +3459,171 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>600076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4688870</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2095500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Picture 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3662C424-5553-4A0E-BC80-4B219792706F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14487525" y="61893451"/>
+          <a:ext cx="4431695" cy="1495424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E181A4-A71A-4E5A-84BA-B4AB5FF9B40B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12792076" y="5553075"/>
-          <a:ext cx="5191124" cy="3400425"/>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4860320</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2047874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Picture 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6950E82-89F3-4077-9FF0-C869B351CC40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19850100" y="61845825"/>
+          <a:ext cx="4431695" cy="1495424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4822220</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2000249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Picture 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C060075E-7C6C-4676-BD5C-25581F833FF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25346025" y="61798200"/>
+          <a:ext cx="4431695" cy="1495424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5050820</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1924049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="Picture 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE77B7AA-CF4A-4EF7-A875-E3BAD3FFBC0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30746700" y="61722000"/>
+          <a:ext cx="4431695" cy="1495424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -889,39 +3635,171 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:colOff>309825</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4668985</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>2124796</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="Picture 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F351C13-DBC3-496F-BE36-DA705E293998}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14540175" y="64665225"/>
+          <a:ext cx="4359160" cy="1810471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60520040-6B6C-445F-841C-9C686A1FA976}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12792077" y="9144001"/>
-          <a:ext cx="5191124" cy="2857499"/>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4883035</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>2286721</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="Picture 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{594A8923-CE75-4853-BD75-F76E3E0407BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19945350" y="64827150"/>
+          <a:ext cx="4359160" cy="1810471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4940185</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>2381971</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="Picture 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1792ACFA-9573-440A-94D8-69967B102888}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25536525" y="64922400"/>
+          <a:ext cx="4359160" cy="1810471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4987810</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>2153371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="Picture 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{389AD27A-6059-4023-A842-A21200D7DEFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30756225" y="64693800"/>
+          <a:ext cx="4359160" cy="1810471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -933,39 +3811,171 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>238901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4526529</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>2191735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="Picture 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9975368D-26AF-4395-A614-25D3832E02AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14487525" y="67618751"/>
+          <a:ext cx="4269354" cy="1952834"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6DD969-222F-4CF3-A524-444AD5744FF5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12792077" y="12192000"/>
-          <a:ext cx="5191123" cy="3629025"/>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4859904</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>2229059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="Picture 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B2F8A87-D22B-4055-BD8B-AB21C25E0B96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20012025" y="67656075"/>
+          <a:ext cx="4269354" cy="1952834"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4850379</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>2162384</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="Picture 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FAB80E6-CBD8-4A6D-BC7D-22152C332D00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25536525" y="67589400"/>
+          <a:ext cx="4269354" cy="1952834"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4955154</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>2229059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Picture 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33879FF3-4732-46B6-814E-2C49BD3B0C58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30813375" y="67656075"/>
+          <a:ext cx="4269354" cy="1952834"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -977,39 +3987,171 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>168867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4181475</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1785163</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="Picture 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2AE3FEF-E4C6-4FF7-A629-42887D83D5B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14620875" y="70491942"/>
+          <a:ext cx="3790950" cy="1616296"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01851904-58C7-4FF0-9CBB-D875C4B8D48E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12792076" y="15821025"/>
-          <a:ext cx="5191124" cy="3448050"/>
+      <xdr:colOff>889808</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4505325</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1789149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="Picture 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A18DD4-65D8-415F-A72F-4798C7F5CE4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20311283" y="70570725"/>
+          <a:ext cx="3615517" cy="1541499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4358467</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1703424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="Picture 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D11D676-AFD4-43AD-A676-FB6007924A74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25698450" y="70485000"/>
+          <a:ext cx="3615517" cy="1541499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4291792</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1798674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="Picture 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B2241F4-7AA5-424A-8E37-A81BDE1DD4D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30803850" y="70580250"/>
+          <a:ext cx="3615517" cy="1541499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1021,39 +4163,171 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>536575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4391026</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>2211388</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="Picture 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15972934-F1ED-45FF-B4C8-573037781881}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14601826" y="73126600"/>
+          <a:ext cx="4019550" cy="1674813"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93D7FFD5-A5DF-45E6-8CE0-BFED90FF23BF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12792075" y="19288126"/>
-          <a:ext cx="5191126" cy="3819524"/>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4295775</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>2093913</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="Picture 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F9C735E-6828-4156-AA91-744B20E7CF7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19697700" y="73009125"/>
+          <a:ext cx="4019550" cy="1674813"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4505325</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>2227263</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="Picture 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60C4A68A-2EB0-475A-AC2B-4F8D2BD167C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25441275" y="73142475"/>
+          <a:ext cx="4019550" cy="1674813"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4543425</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>1922463</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="Picture 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E8A43CE-B1CA-4AA7-96A4-FF2AFA457C8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30651450" y="72837675"/>
+          <a:ext cx="4019550" cy="1674813"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1065,39 +4339,171 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>409576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4882377</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>2333626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="Picture 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144697B6-CAC0-43A4-8E3B-480B9F8381A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14478000" y="78886051"/>
+          <a:ext cx="4634727" cy="1924050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16AFB8CD-531F-4A67-B616-5F3A8BEF4B4F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12792076" y="23088601"/>
-          <a:ext cx="5191124" cy="3448049"/>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5187177</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>2314575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="Picture 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E8D1DE-83C8-47ED-B7F0-FD26C3B75AB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19973925" y="78867000"/>
+          <a:ext cx="4634727" cy="1924050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5101452</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>2381250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="113" name="Picture 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6115F2B-FA08-444E-B814-558C1BAD88FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25422225" y="78933675"/>
+          <a:ext cx="4634727" cy="1924050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>34152</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>2295525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="Picture 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3CB72D3-B1A7-4F7A-BC91-5793D7772C30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31022925" y="78847950"/>
+          <a:ext cx="4634727" cy="1924050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1109,39 +4515,171 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:colOff>808900</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>266699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4910380</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>2000250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="Picture 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB6BC304-D01A-4A12-8C5D-02D51CC7BFE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15039250" y="81791174"/>
+          <a:ext cx="4101480" cy="1733551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C51E2514-5351-48F6-AB21-37B9F32FB619}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12792077" y="26536651"/>
-          <a:ext cx="5191124" cy="3762374"/>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4882530</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1952626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="Picture 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDEF8BB6-CC99-46D9-9973-C2FD2E12D9E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20202525" y="81743550"/>
+          <a:ext cx="4101480" cy="1733551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4749180</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>2000251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="117" name="Picture 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35AEAF74-9D97-4040-9301-3613B2958243}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25603200" y="81791175"/>
+          <a:ext cx="4101480" cy="1733551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4653930</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>2000251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="118" name="Picture 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC6B0A4-7661-4249-9C61-7B7F177E35A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30680025" y="81791175"/>
+          <a:ext cx="4101480" cy="1733551"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1153,743 +4691,171 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4295775</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>23539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="119" name="Picture 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEE7E910-D12C-4C6A-9357-634A42DF2155}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14811374" y="76180950"/>
+          <a:ext cx="3714751" cy="1557064"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE8FAA15-F252-4D81-9C4A-023A131D88D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12792075" y="30489525"/>
-          <a:ext cx="5191125" cy="3248025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985741E1-2749-4C87-8A67-0F83FBDF6B7D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12792075" y="33928050"/>
-          <a:ext cx="5191125" cy="3286125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>5162550</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5452217E-B331-41E4-975F-E482A853F16E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12792075" y="37404675"/>
-          <a:ext cx="5162550" cy="2676526"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D6A5EE-9004-436B-B110-55C947C8A9C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12792075" y="40252650"/>
-          <a:ext cx="5191125" cy="3181350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C691AE62-77AF-4210-8883-D1A043C73B12}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12792075" y="43434000"/>
-          <a:ext cx="5191125" cy="2305050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0A25E45-77AB-47C6-AE76-74516E2033CB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12792075" y="45739050"/>
-          <a:ext cx="5191125" cy="3048000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3A2F7C9-DA3B-461B-BA2F-F104D016178D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12792076" y="48787050"/>
-          <a:ext cx="5191124" cy="4000500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00C021C9-C9AE-4CE8-A287-8BCE84C9879C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12792075" y="52978050"/>
-          <a:ext cx="5191125" cy="3028950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC80794E-ED91-4457-A9D5-02392723033E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12792076" y="56197500"/>
-          <a:ext cx="5191124" cy="2352675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36ADDCB4-B6C4-45BF-8AD9-8FAD078DF533}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12792077" y="58740677"/>
-          <a:ext cx="5191124" cy="2200274"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE7403E-0626-4EA9-8C73-3E3D43A3760E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12792075" y="60940950"/>
-          <a:ext cx="5191125" cy="2867025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A7ADC00-2040-4434-A9B8-2990E04333B0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12792076" y="63998476"/>
-          <a:ext cx="5191124" cy="2838449"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52977E4A-FC27-493F-8E0E-7C917946221E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12792075" y="67027425"/>
-          <a:ext cx="5191125" cy="2752725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Picture 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D7610E6-1633-4A29-B2DD-7FF5956ED177}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12792075" y="69970650"/>
-          <a:ext cx="5191125" cy="2076450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>5191124</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Picture 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86751708-E5C1-424D-A5C2-5189282F8CF2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12792075" y="72237600"/>
-          <a:ext cx="5191124" cy="3219450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Picture 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D0F0CDD-C0C1-4F61-B639-A8F3B28D5439}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12792076" y="78114525"/>
-          <a:ext cx="5191124" cy="2867025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Picture 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{037F001A-0C3C-4BD4-8198-A5AEE4654587}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12792077" y="81172050"/>
-          <a:ext cx="5191124" cy="2486025"/>
+      <xdr:colOff>4762501</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>99739</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="121" name="Picture 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6D89A0-7732-4542-A058-F756E690814E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20469225" y="76257150"/>
+          <a:ext cx="3714751" cy="1557064"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4438651</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>118789</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="122" name="Picture 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C48AA970-1E54-41BD-B0FF-86DC11FCCC40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25679400" y="76276200"/>
+          <a:ext cx="3714751" cy="1557064"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4543426</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>756964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="123" name="Picture 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0346878C-E52D-4757-9229-DE7B10EDEBEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30956250" y="76152375"/>
+          <a:ext cx="3714751" cy="1557064"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2198,110 +5164,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115B7480-3B3D-4922-96EC-1499616FB2AA}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46:H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="119.5703125" style="6" customWidth="1"/>
     <col min="5" max="5" width="77.85546875" customWidth="1"/>
-    <col min="6" max="6" width="76.42578125" customWidth="1"/>
+    <col min="6" max="6" width="83" customWidth="1"/>
+    <col min="7" max="7" width="77.5703125" customWidth="1"/>
+    <col min="8" max="8" width="82.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:8" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
       <c r="B4" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="15"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" ht="267.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="267.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:5" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="285.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:8" ht="285.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -2314,8 +5291,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="271.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+    <row r="11" spans="1:8" ht="271.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
       <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
@@ -2326,8 +5303,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="300.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+    <row r="12" spans="1:8" ht="300.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2338,8 +5315,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="271.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+    <row r="13" spans="1:8" ht="271.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
       <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
@@ -2350,30 +5327,30 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="296.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="296.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:5" ht="255.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="255.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>21</v>
@@ -2382,11 +5359,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:4" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:8" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -2399,8 +5376,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+    <row r="19" spans="1:8" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
       <c r="B19" s="6" t="s">
         <v>27</v>
       </c>
@@ -2411,11 +5388,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -2428,8 +5405,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+    <row r="22" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
       <c r="B22" s="6" t="s">
         <v>36</v>
       </c>
@@ -2440,8 +5417,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+    <row r="23" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
       <c r="B23" s="6" t="s">
         <v>37</v>
       </c>
@@ -2452,10 +5429,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-    </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="6" t="s">
         <v>84</v>
@@ -2467,22 +5444,31 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:8" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
         <v>101</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+        <v>140</v>
+      </c>
+      <c r="F26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
       <c r="B27" s="6" t="s">
         <v>85</v>
       </c>
@@ -2492,9 +5478,18 @@
       <c r="D27" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="240" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+      <c r="F27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
       <c r="B28" s="6" t="s">
         <v>86</v>
       </c>
@@ -2504,9 +5499,18 @@
       <c r="D28" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="315" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+      <c r="F28" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28" t="s">
+        <v>150</v>
+      </c>
+      <c r="H28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="315" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
       <c r="B29" s="6" t="s">
         <v>87</v>
       </c>
@@ -2516,11 +5520,20 @@
       <c r="D29" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:4" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>90</v>
       </c>
@@ -2533,16 +5546,25 @@
       <c r="D31" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>150</v>
+      </c>
+      <c r="G31" t="s">
+        <v>150</v>
+      </c>
+      <c r="H31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
     </row>
-    <row r="33" spans="1:5" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>89</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>82</v>
@@ -2551,11 +5573,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
     </row>
-    <row r="35" spans="1:5" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+    <row r="35" spans="1:8" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
         <v>91</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -2568,8 +5590,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="225.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
+    <row r="36" spans="1:8" ht="225.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
       <c r="B36" s="15"/>
       <c r="C36" s="7" t="s">
         <v>95</v>
@@ -2578,10 +5600,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:5" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>93</v>
       </c>
@@ -2592,30 +5614,30 @@
         <v>103</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
     </row>
-    <row r="40" spans="1:5" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
     </row>
-    <row r="42" spans="1:5" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>102</v>
       </c>
@@ -2623,82 +5645,90 @@
         <v>98</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:5" ht="253.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="253.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>104</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>107</v>
       </c>
       <c r="D44" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+    </row>
+    <row r="46" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+    </row>
+    <row r="47" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-    </row>
-    <row r="46" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="7" t="s">
+      <c r="E47" s="14"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+    </row>
+    <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E47" s="16"/>
-    </row>
-    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E48" s="16"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
+      <c r="C49" s="11"/>
     </row>
     <row r="50" spans="1:4" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>106</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>108</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2706,20 +5736,23 @@
     </row>
     <row r="52" spans="1:4" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="D52" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>127</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="H46:H48"/>
     <mergeCell ref="E46:E48"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A3:A6"/>
@@ -2931,29 +5964,29 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+      <c r="A17" s="18">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -2967,41 +6000,41 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="A21" s="18">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="18"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="18"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="13"/>
+      <c r="C24" s="18"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="18"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
